--- a/planificación.xlsx
+++ b/planificación.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ealcober\git\mdbd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{42EAA2D2-787B-4D06-813C-8BA15C03F050}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065EF639-17BD-47E3-BD99-A90BB8FD7ED2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -179,7 +179,7 @@
     <t>Puesta en Común</t>
   </si>
   <si>
-    <t>Hemos utilizado la Metodología Semma. Al principio fue dificil encontrar Datasets que permitieran el análisis de nuestra hipótesis, por eso trabajamos en paralelo. Tras la primera puesta en común, fijamos los datasets que íbamos a utilizar y continuamos trabajando en paralelo para observar desde los dos puntos de vista, qué resultados teníamos y su relación con nuestra hipótesis. La fase de Modelado y Evaluación la pongo al final, ya que llegar a ella nos costó dos iteraciones de las tres fases primeras, terminando de elaborar los resultados del experimento en equipo, dentro de los plazos previstos. Aunque hay etapas que han comenzado antes de lo que teníamos previsto, y otras que se han extendido más, hemos cumplido bastante bien con los obejtivos que nos hemos ido fijando. Tampoco hemos dejado que el calendario mermase nuestro avance, dejando que fueran los resultados de nuestros análisis proyecto los que marcaran el ritmo.</t>
+    <t>Hemos utilizado la Metodología Semma por su flexibilidad. Al principio fue dificil encontrar Datasets que permitieran el análisis de nuestra hipótesis, por eso trabajamos en paralelo. Tras la primera puesta en común, fijamos los datasets que íbamos a utilizar y continuamos trabajando en por separado para observar desde los dos puntos de vista, qué resultados teníamos y qué arrojaban las relaciones entre los datasets, "escuchando", pero buscando relación con nuestra hipótesis. La fase de Modelado y Evaluación la pongo al final, ya que llegar a ella nos costó dos iteraciones de las tres fases primeras, terminando de elaborar los resultados del experimento en equipo, dentro de los plazos previstos. Aunque hay etapas que han comenzado antes de lo que teníamos previsto, y otras que se han extendido más, hemos cumplido bastante bien con los obejtivos que nos hemos ido fijando. Tampoco hemos dejado que el calendario mermase nuestro avance, dejando que fueran los resultados de nuestros análisis sobre el proyecto los que marcaran el ritmo.</t>
   </si>
 </sst>
 </file>
@@ -582,10 +582,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -610,499 +610,7 @@
     <cellStyle name="Título 3" xfId="10" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Valor del periodo" xfId="13" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
   </cellStyles>
-  <dxfs count="44">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -1489,10 +997,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BO18"/>
+  <dimension ref="B1:BB18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:T18"/>
+      <selection activeCell="BJ10" sqref="BJ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1507,7 +1015,7 @@
     <col min="8" max="27" width="2.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="2:54" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="13" t="s">
         <v>19</v>
       </c>
@@ -1517,7 +1025,7 @@
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
@@ -1579,14 +1087,14 @@
       <c r="AS2" s="22"/>
       <c r="AT2" s="22"/>
     </row>
-    <row r="3" spans="2:67" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:54" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="36" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="26" t="s">
@@ -1621,7 +1129,7 @@
       <c r="Z3" s="10"/>
       <c r="AA3" s="10"/>
     </row>
-    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="25"/>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
@@ -1769,47 +1277,8 @@
       <c r="BB4" s="3">
         <v>47</v>
       </c>
-      <c r="BC4" s="3">
-        <v>48</v>
-      </c>
-      <c r="BD4" s="3">
-        <v>49</v>
-      </c>
-      <c r="BE4" s="3">
-        <v>50</v>
-      </c>
-      <c r="BF4" s="3">
-        <v>51</v>
-      </c>
-      <c r="BG4" s="3">
-        <v>52</v>
-      </c>
-      <c r="BH4" s="3">
-        <v>53</v>
-      </c>
-      <c r="BI4" s="3">
-        <v>54</v>
-      </c>
-      <c r="BJ4" s="3">
-        <v>55</v>
-      </c>
-      <c r="BK4" s="3">
-        <v>56</v>
-      </c>
-      <c r="BL4" s="3">
-        <v>57</v>
-      </c>
-      <c r="BM4" s="3">
-        <v>58</v>
-      </c>
-      <c r="BN4" s="3">
-        <v>59</v>
-      </c>
-      <c r="BO4" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
@@ -1829,7 +1298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
@@ -1849,7 +1318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
@@ -1869,7 +1338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
@@ -1889,7 +1358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
@@ -1909,7 +1378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
@@ -1929,7 +1398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
@@ -1949,7 +1418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>15</v>
       </c>
@@ -1969,7 +1438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>16</v>
       </c>
@@ -1989,7 +1458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
         <v>20</v>
       </c>
@@ -2009,182 +1478,130 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="36" t="s">
+    <row r="15" spans="2:54" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-    </row>
-    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+    </row>
+    <row r="16" spans="2:54" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
     </row>
     <row r="17" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
     </row>
     <row r="18" spans="2:20" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B15:T18"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:BO6 H8:BO13">
-    <cfRule type="expression" dxfId="43" priority="17">
+  <conditionalFormatting sqref="H5:BB14">
+    <cfRule type="expression" dxfId="9" priority="17">
       <formula>PorcentajeCompletado</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="19">
+    <cfRule type="expression" dxfId="8" priority="19">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="20">
+    <cfRule type="expression" dxfId="7" priority="20">
       <formula>Real</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="21">
+    <cfRule type="expression" dxfId="6" priority="21">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="22">
+    <cfRule type="expression" dxfId="5" priority="22">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="23">
+    <cfRule type="expression" dxfId="4" priority="23">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="27">
+    <cfRule type="expression" dxfId="3" priority="27">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="28">
+    <cfRule type="expression" dxfId="2" priority="28">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15 U15:BO15">
-    <cfRule type="expression" dxfId="35" priority="18">
+  <conditionalFormatting sqref="B15 U15:BB15">
+    <cfRule type="expression" dxfId="1" priority="18">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:BO4">
-    <cfRule type="expression" dxfId="34" priority="24">
+  <conditionalFormatting sqref="H4:BB4">
+    <cfRule type="expression" dxfId="0" priority="24">
       <formula>H$4=period_selected</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7:BO7">
-    <cfRule type="expression" dxfId="33" priority="9">
-      <formula>PorcentajeCompletado</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="10">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="11">
-      <formula>Real</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="12">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="13">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="14">
-      <formula>H$4=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="15">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="16">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14:BO14">
-    <cfRule type="expression" dxfId="7" priority="1">
-      <formula>PorcentajeCompletado</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3">
-      <formula>Real</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
-      <formula>H$4=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="8">
-      <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="16">
@@ -2209,7 +1626,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.43307086614173229" right="0.43307086614173229" top="0.51181102362204722" bottom="0.51181102362204722" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
